--- a/_sample/テスト用台帳.xlsx
+++ b/_sample/テスト用台帳.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72c988bf6e9f1eb5/Private/10_Tools/Excel_VBA/Excel台帳をDBに反映するマクロ/台帳置場/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gpbjk\Documents\GitHub\excel_to_db\_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50E31C6-084F-4DCB-B0B3-EEE98D192C81}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749617DA-3ADF-4E53-A447-51E374485570}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9411" xr2:uid="{321BDF89-F47D-4F3E-A983-EB829749771A}"/>
   </bookViews>
@@ -154,9 +154,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -475,11 +476,12 @@
   <dimension ref="A4:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="5" max="5" width="9.1875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.0625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -545,8 +547,8 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="1">
-        <v>20181021</v>
+      <c r="E6" s="2">
+        <v>43374</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>2</v>
@@ -580,8 +582,8 @@
       <c r="D7" s="1">
         <v>2</v>
       </c>
-      <c r="E7" s="1">
-        <v>20181021</v>
+      <c r="E7" s="2">
+        <v>43375</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>3</v>
